--- a/results/Xr_Results.xlsx
+++ b/results/Xr_Results.xlsx
@@ -73,6 +73,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -95,6 +96,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -366,12 +368,12 @@
   <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
@@ -433,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n" s="4">
-        <v>1684</v>
+        <v>1689</v>
       </c>
       <c r="D6" t="n" s="5">
         <v>0</v>
@@ -443,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="n" s="4">
-        <v>1684</v>
+        <v>1689</v>
       </c>
       <c r="H6" t="n" s="5">
         <v>0</v>
@@ -453,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="K6" t="n" s="4">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="L6" t="n" s="5">
         <v>0</v>
@@ -464,30 +466,30 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="D7">
-        <v>4010</v>
+        <v>3990</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" t="s" s="3">
         <v>7</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>4081</v>
+        <v>4023</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" t="s" s="3">
         <v>7</v>
       </c>
       <c r="K7">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L7">
-        <v>4851</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -495,30 +497,30 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D8">
-        <v>4649</v>
+        <v>4336</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" t="s" s="3">
         <v>8</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>4978</v>
+        <v>4471</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" t="s" s="3">
         <v>8</v>
       </c>
       <c r="K8">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="L8">
-        <v>4982</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -558,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>0.06353919239904988</v>
+        <v>0.09887507400828893</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
@@ -566,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="G11">
-        <v>0.0017814726840855108</v>
+        <v>0.002368265245707519</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
@@ -574,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="K11">
-        <v>0.12493946731234867</v>
+        <v>0.12015503875968993</v>
       </c>
       <c r="L11" s="5"/>
     </row>
@@ -583,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.020783847980997625</v>
+        <v>0.046181172291296625</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="4"/>
@@ -591,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="G12">
-        <v>0.013657957244655582</v>
+        <v>0.002960331557134399</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="4"/>
@@ -599,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="K12">
-        <v>0.0576271186440678</v>
+        <v>0.03972868217054264</v>
       </c>
       <c r="L12" s="8"/>
     </row>
@@ -652,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="n" s="4">
-        <v>1828</v>
+        <v>1753</v>
       </c>
       <c r="D17" t="n" s="5">
         <v>0</v>
@@ -662,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="G17" t="n" s="4">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H17" t="n" s="5">
         <v>0</v>
@@ -673,7 +675,7 @@
       </c>
       <c r="K17" t="n" s="4">
         <f>C6+K6+C17+G17</f>
-        <v>5888</v>
+        <v>5812</v>
       </c>
       <c r="L17" t="n" s="12">
         <v>0</v>
@@ -684,30 +686,30 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="D18">
-        <v>4872</v>
+        <v>4874</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" t="s" s="3">
         <v>7</v>
       </c>
       <c r="G18">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H18">
-        <v>4935</v>
+        <v>4937</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" t="s" s="11">
         <v>7</v>
       </c>
       <c r="K18">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="L18">
-        <v>22749</v>
+        <v>22663</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -715,30 +717,30 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>4989</v>
+        <v>4999</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" t="s" s="3">
         <v>8</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>4919</v>
+        <v>4613</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" t="s" s="11">
         <v>8</v>
       </c>
       <c r="K19">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="L19">
-        <v>24517</v>
+        <v>23288</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -778,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>0.10776805251641138</v>
+        <v>0.09070165430690245</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
@@ -786,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="G22">
-        <v>0.29260450160771706</v>
+        <v>0.31699346405228757</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="4"/>
@@ -794,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="K22">
-        <v>0.11141304347826086</v>
+        <v>0.11613902271163111</v>
       </c>
       <c r="L22" s="12"/>
     </row>
@@ -803,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0.0525164113785558</v>
+        <v>0.0387906446092413</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="4"/>
@@ -811,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="G23">
-        <v>0.02572347266881029</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="4"/>
@@ -819,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="K23">
-        <v>0.047724184782608696</v>
+        <v>0.04628355127322781</v>
       </c>
       <c r="L23" s="15"/>
     </row>

--- a/results/Xr_Results.xlsx
+++ b/results/Xr_Results.xlsx
@@ -497,10 +497,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8">
-        <v>4336</v>
+        <v>4258</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" t="s" s="3">
@@ -510,17 +510,17 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>4471</v>
+        <v>4448</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" t="s" s="3">
         <v>8</v>
       </c>
       <c r="K8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L8">
-        <v>4869</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.046181172291296625</v>
+        <v>0.044997039668442866</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="4"/>
@@ -601,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="K12">
-        <v>0.03972868217054264</v>
+        <v>0.040213178294573645</v>
       </c>
       <c r="L12" s="8"/>
     </row>
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19">
         <v>4999</v>
@@ -727,20 +727,20 @@
         <v>8</v>
       </c>
       <c r="G19">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H19">
-        <v>4613</v>
+        <v>4508</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" t="s" s="11">
         <v>8</v>
       </c>
       <c r="K19">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L19">
-        <v>23288</v>
+        <v>23079</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -805,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0.0387906446092413</v>
+        <v>0.039361095265259556</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="4"/>
@@ -813,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="G23">
-        <v>0.11764705882352941</v>
+        <v>0.12745098039215685</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="4"/>
@@ -821,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="K23">
-        <v>0.04628355127322781</v>
+        <v>0.04679972470750172</v>
       </c>
       <c r="L23" s="15"/>
     </row>

--- a/results/Xr_Results.xlsx
+++ b/results/Xr_Results.xlsx
@@ -497,10 +497,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8">
-        <v>4258</v>
+        <v>4336</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" t="s" s="3">
@@ -510,17 +510,17 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>4448</v>
+        <v>4471</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" t="s" s="3">
         <v>8</v>
       </c>
       <c r="K8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8">
-        <v>4866</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.044997039668442866</v>
+        <v>0.046181172291296625</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="4"/>
@@ -601,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="K12">
-        <v>0.040213178294573645</v>
+        <v>0.03972868217054264</v>
       </c>
       <c r="L12" s="8"/>
     </row>
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>4999</v>
@@ -727,20 +727,20 @@
         <v>8</v>
       </c>
       <c r="G19">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>4508</v>
+        <v>4613</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" t="s" s="11">
         <v>8</v>
       </c>
       <c r="K19">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L19">
-        <v>23079</v>
+        <v>23288</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -805,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0.039361095265259556</v>
+        <v>0.0387906446092413</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="4"/>
@@ -813,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="G23">
-        <v>0.12745098039215685</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="4"/>
@@ -821,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="K23">
-        <v>0.04679972470750172</v>
+        <v>0.04628355127322781</v>
       </c>
       <c r="L23" s="15"/>
     </row>

--- a/results/Xr_Results.xlsx
+++ b/results/Xr_Results.xlsx
@@ -256,28 +256,28 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D7">
-        <v>3990</v>
+        <v>4401</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4023</v>
+        <v>4401</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="K7">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="L7">
-        <v>4839</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -285,28 +285,28 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>4994</v>
+        <v>4233</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5000</v>
+        <v>4306</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="K8">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="L8">
-        <v>5000</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="10" spans="2:12">
@@ -325,19 +325,19 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>0.09702380952380953</v>
+        <v>0.08988095238095238</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>7</v>
       </c>
       <c r="G11">
-        <v>0.0011904761904761906</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="s" s="0">
         <v>7</v>
       </c>
       <c r="K11">
-        <v>0.11822660098522167</v>
+        <v>0.08374384236453201</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -345,19 +345,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.029166666666666667</v>
+        <v>0.039285714285714285</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="G12">
-        <v>0.0011904761904761906</v>
+        <v>0.0</v>
       </c>
       <c r="J12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="K12">
-        <v>0.025123152709359605</v>
+        <v>0.04039408866995074</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -432,28 +432,28 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="D18">
-        <v>4874</v>
+        <v>4995</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>7</v>
       </c>
       <c r="G18">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H18">
-        <v>4937</v>
+        <v>4620</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>7</v>
       </c>
       <c r="K18">
-        <v>656</v>
+        <v>503</v>
       </c>
       <c r="L18">
-        <v>22663</v>
+        <v>23297</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -461,28 +461,28 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D19">
-        <v>5000</v>
+        <v>4996</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="H19">
-        <v>5000</v>
+        <v>4371</v>
       </c>
       <c r="J19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="K19">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="L19">
-        <v>24994</v>
+        <v>22770</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -501,19 +501,19 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>0.09090909090909091</v>
+        <v>0.061378112333526344</v>
       </c>
       <c r="F22" t="s" s="0">
         <v>7</v>
       </c>
       <c r="G22">
-        <v>0.3197278911564626</v>
+        <v>0.2585034013605442</v>
       </c>
       <c r="J22" t="s" s="0">
         <v>7</v>
       </c>
       <c r="K22">
-        <v>0.11446518932123538</v>
+        <v>0.08776827778747165</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -521,19 +521,19 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0.016213086276780544</v>
+        <v>0.04400694846554719</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="G23">
-        <v>0.061224489795918366</v>
+        <v>0.23469387755102042</v>
       </c>
       <c r="J23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="K23">
-        <v>0.025824463444425058</v>
+        <v>0.0511254580352469</v>
       </c>
     </row>
   </sheetData>
